--- a/evaluation/results.xlsx
+++ b/evaluation/results.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enno/Development/SensorFusionEngineer/SFND_3D_Object_Tracking/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4679F3-A9F5-4E4D-9288-8639E9D4949B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC27D4D-6CE6-3640-AD65-03CC93F6461B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28040" windowHeight="16260" activeTab="2" xr2:uid="{FD461F20-0886-3840-B8A2-C94F4E0BFC32}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="28040" windowHeight="16260" activeTab="3" xr2:uid="{FD461F20-0886-3840-B8A2-C94F4E0BFC32}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Without_Camera_BB_Matching_NN" sheetId="1" r:id="rId1"/>
+    <sheet name="Fixed_NN" sheetId="2" r:id="rId2"/>
+    <sheet name="Average_TTC_Delta" sheetId="3" r:id="rId3"/>
+    <sheet name="Graph_Calc" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="example" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="measures" localSheetId="0">Sheet1!$A$1:$G$97</definedName>
-    <definedName name="measures" localSheetId="1">Sheet2!$A$1:$G$673</definedName>
+    <definedName name="example" localSheetId="0">Without_Camera_BB_Matching_NN!#REF!</definedName>
+    <definedName name="measures" localSheetId="1">Fixed_NN!$A$1:$G$673</definedName>
+    <definedName name="measures" localSheetId="0">Without_Camera_BB_Matching_NN!$A$1:$G$97</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="37">
   <si>
     <t>Detector Type</t>
   </si>
@@ -307,7 +308,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -321,7 +322,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$19</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -394,7 +395,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -408,7 +409,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$19</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$E$2:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -481,7 +482,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -504,7 +505,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$19</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -577,7 +578,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -600,7 +601,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$19</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$E$2:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -885,7 +886,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -899,7 +900,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$655:$D$672</c:f>
+              <c:f>Fixed_NN!$D$655:$D$672</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -972,7 +973,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -986,7 +987,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$655:$E$672</c:f>
+              <c:f>Fixed_NN!$E$655:$E$672</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1210,6 +1211,781 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>SHITOMASI/FREAK</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Without_Camera_BB_Matching_NN!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Camera TTC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fixed_NN!$D$59:$D$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>14.022600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.3866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.0349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.4918</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.351100000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.150499999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.0967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.706899999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.6919</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.7502</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.052099999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.7264</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.008599999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.2263</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5162300000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.5161</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.2585699999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADD5-F746-AD0D-F7F172907F20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Without_Camera_BB_Matching_NN!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Lidar TTC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fixed_NN!$E$59:$E$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>12.515599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.6142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.090999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.689399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.746499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.7835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.984400000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.1241</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.024100000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.1746</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.8086</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9597800000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9643899999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.59863</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.5215700000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5155200000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.6124100000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.3987999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ADD5-F746-AD0D-F7F172907F20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="1548765455"/>
+        <c:axId val="1554751919"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1548765455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1554751919"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1554751919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1548765455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t>HARRIS/SIFT</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Without_Camera_BB_Matching_NN!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Camera TTC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph_Calc!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="2">
+                  <c:v>12.534000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.417899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.1065</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.4537</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.3971</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.580100000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3583100000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.911199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.516599999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6234599999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.2972</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1036-4B4E-A7B2-DBEF80753B30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Without_Camera_BB_Matching_NN!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Lidar TTC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Graph_Calc!$E$2:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>12.515599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.6142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.090999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.689399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.746499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.7835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.984400000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.1241</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.024100000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.1746</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.8086</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9597800000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9643899999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.59863</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.5215700000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5155200000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.6124100000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.3987999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1036-4B4E-A7B2-DBEF80753B30}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines/>
+        <c:smooth val="0"/>
+        <c:axId val="1548765455"/>
+        <c:axId val="1554751919"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1548765455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frames</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1554751919"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1554751919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TTC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1548765455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1271,7 +2047,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1285,7 +2061,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$21:$D$38</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$D$21:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1358,7 +2134,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1372,7 +2148,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$21:$E$38</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$E$21:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1657,7 +2433,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1671,7 +2447,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$40:$D$57</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$D$40:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1744,7 +2520,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1758,7 +2534,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$40:$E$57</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$E$40:$E$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -2043,7 +2819,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2057,7 +2833,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$59:$D$76</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$D$59:$D$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -2130,7 +2906,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2144,7 +2920,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$59:$E$76</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$E$59:$E$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -2429,7 +3205,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2443,7 +3219,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$79:$D$96</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$D$79:$D$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -2516,7 +3292,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2530,7 +3306,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$79:$E$96</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$E$79:$E$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -2815,7 +3591,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2829,7 +3605,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$19</c:f>
+              <c:f>Fixed_NN!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -2902,7 +3678,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2916,7 +3692,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$2:$E$19</c:f>
+              <c:f>Fixed_NN!$E$2:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -2992,20 +3768,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:hiLowLines>
+        <c:hiLowLines/>
         <c:smooth val="0"/>
         <c:axId val="1548765455"/>
         <c:axId val="1554751919"/>
@@ -3017,6 +3780,24 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frames</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3081,15 +3862,30 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TTC</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
@@ -3117,6 +3913,10 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3201,7 +4001,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3215,7 +4015,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$21:$D$38</c:f>
+              <c:f>Fixed_NN!$D$21:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3288,7 +4088,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3302,7 +4102,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$21:$E$38</c:f>
+              <c:f>Fixed_NN!$E$21:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3587,7 +4387,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3601,7 +4401,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$40:$D$57</c:f>
+              <c:f>Fixed_NN!$D$40:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3674,7 +4474,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3688,7 +4488,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$40:$E$57</c:f>
+              <c:f>Fixed_NN!$E$40:$E$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -3973,7 +4773,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3987,7 +4787,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$79:$D$96</c:f>
+              <c:f>Fixed_NN!$D$79:$D$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -4060,7 +4860,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Without_Camera_BB_Matching_NN!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4074,7 +4874,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$79:$E$96</c:f>
+              <c:f>Fixed_NN!$E$79:$E$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -4683,6 +5483,87 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F040EC5B-797A-DE42-B52B-465C143C8B60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48CE0032-702B-064F-AAE3-E7CF5298228A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4993,8 +5874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6524F0-0D71-694E-9AAC-AAA339325574}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection sqref="A1:F20"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6885,8 +7766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EB2D5D-A364-054F-A4CD-2E14A54431EB}">
   <dimension ref="A1:F673"/>
   <sheetViews>
-    <sheetView topLeftCell="A641" workbookViewId="0">
-      <selection activeCell="F674" sqref="F674"/>
+    <sheetView topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175:F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19906,8 +20787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AB2EB7-41B8-F646-8B9F-D2FC4FCC1C69}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20094,4 +20975,387 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB2E889-E45B-6C49-872F-8CCE20A99FB5}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>12.515599999999999</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>12.6142</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>12.534000000000001</v>
+      </c>
+      <c r="E4">
+        <v>14.090999999999999</v>
+      </c>
+      <c r="F4">
+        <v>1.5569999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>14.417899999999999</v>
+      </c>
+      <c r="E5">
+        <v>16.689399999999999</v>
+      </c>
+      <c r="F5">
+        <v>2.2715299999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>14.1065</v>
+      </c>
+      <c r="E6">
+        <v>15.746499999999999</v>
+      </c>
+      <c r="F6">
+        <v>1.64002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>13.4537</v>
+      </c>
+      <c r="E7">
+        <v>12.7835</v>
+      </c>
+      <c r="F7">
+        <v>0.67024499999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>12.3971</v>
+      </c>
+      <c r="E8">
+        <v>11.984400000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.412773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>49.580100000000002</v>
+      </c>
+      <c r="E9">
+        <v>13.1241</v>
+      </c>
+      <c r="F9">
+        <v>36.456000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>5.3583100000000004</v>
+      </c>
+      <c r="E10">
+        <v>13.024100000000001</v>
+      </c>
+      <c r="F10">
+        <v>7.6658099999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>11.1746</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>12.8086</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>8.9597800000000003</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>10.911199999999999</v>
+      </c>
+      <c r="E14">
+        <v>9.9643899999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.94684500000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>37.516599999999997</v>
+      </c>
+      <c r="E15">
+        <v>9.59863</v>
+      </c>
+      <c r="F15">
+        <v>27.917999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>5.6234599999999997</v>
+      </c>
+      <c r="E16">
+        <v>8.5215700000000005</v>
+      </c>
+      <c r="F16">
+        <v>2.89811</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>11.2972</v>
+      </c>
+      <c r="E17">
+        <v>9.5155200000000004</v>
+      </c>
+      <c r="F17">
+        <v>1.78165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>9.6124100000000006</v>
+      </c>
+      <c r="F18">
+        <v>258.45499999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>8.3987999999999996</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>